--- a/Reduced Lunch Rate.xlsx
+++ b/Reduced Lunch Rate.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kl208\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonyrodriguez/Desktop/GitHub/216finalproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -392,7 +398,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -708,13 +714,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -723,7 +736,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -740,7 +753,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -757,7 +770,7 @@
         <v>11243</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -774,7 +787,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -791,7 +804,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -808,7 +821,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -825,7 +838,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -842,7 +855,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -859,7 +872,7 @@
         <v>4098</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -876,7 +889,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -893,7 +906,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -910,7 +923,7 @@
         <v>6741</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -927,7 +940,7 @@
         <v>11860</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -944,7 +957,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -961,7 +974,7 @@
         <v>6779</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -978,7 +991,7 @@
         <v>12163</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -995,7 +1008,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1012,7 +1025,7 @@
         <v>6162</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1029,7 +1042,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1046,7 +1059,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1063,7 +1076,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1080,7 +1093,7 @@
         <v>7310</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1097,7 +1110,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1114,7 +1127,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1131,7 +1144,7 @@
         <v>4037</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1148,7 +1161,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1165,7 +1178,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1182,7 +1195,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1199,7 +1212,7 @@
         <v>9216</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1216,7 +1229,7 @@
         <v>3633</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1233,7 +1246,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1250,7 +1263,7 @@
         <v>6726</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1267,7 +1280,7 @@
         <v>26557</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1284,7 +1297,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1301,7 +1314,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1318,7 +1331,7 @@
         <v>7810</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1335,7 +1348,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -1352,7 +1365,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1369,7 +1382,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -1386,7 +1399,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -1403,7 +1416,7 @@
         <v>6887</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -1420,7 +1433,7 @@
         <v>19139</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1437,7 +1450,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -1454,7 +1467,7 @@
         <v>25582</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -1471,7 +1484,7 @@
         <v>4294</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -1488,7 +1501,7 @@
         <v>15819</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -1505,7 +1518,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -1522,7 +1535,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -1539,7 +1552,7 @@
         <v>4155</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -1556,7 +1569,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -1573,7 +1586,7 @@
         <v>35435</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -1590,7 +1603,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -1607,7 +1620,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -1624,7 +1637,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -1641,7 +1654,7 @@
         <v>10430</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -1658,7 +1671,7 @@
         <v>3534</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -1675,7 +1688,7 @@
         <v>6286</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -1692,7 +1705,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -1709,7 +1722,7 @@
         <v>4640</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -1726,7 +1739,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -1743,7 +1756,7 @@
         <v>7931</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -1760,7 +1773,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -1777,7 +1790,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -1794,7 +1807,7 @@
         <v>14418</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -1811,7 +1824,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -1828,7 +1841,7 @@
         <v>6315</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -1845,7 +1858,7 @@
         <v>5246</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -1862,7 +1875,7 @@
         <v>4833</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -1879,7 +1892,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -1896,7 +1909,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -1913,7 +1926,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -1930,7 +1943,7 @@
         <v>3784</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -1947,7 +1960,7 @@
         <v>63813</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -1964,7 +1977,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -1981,7 +1994,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -1998,7 +2011,7 @@
         <v>5108</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -2015,7 +2028,7 @@
         <v>9026</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -2032,7 +2045,7 @@
         <v>11228</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -2049,7 +2062,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -2066,7 +2079,7 @@
         <v>10075</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -2083,7 +2096,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -2100,7 +2113,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -2117,7 +2130,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -2134,7 +2147,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -2151,7 +2164,7 @@
         <v>4481</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -2168,7 +2181,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -2185,7 +2198,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -2202,7 +2215,7 @@
         <v>12985</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -2219,7 +2232,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -2236,7 +2249,7 @@
         <v>8847</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -2253,7 +2266,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -2270,7 +2283,7 @@
         <v>4737</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -2287,7 +2300,7 @@
         <v>14086</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -2304,7 +2317,7 @@
         <v>6247</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -2321,7 +2334,7 @@
         <v>10411</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -2338,7 +2351,7 @@
         <v>4596</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -2355,7 +2368,7 @@
         <v>5756</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>96</v>
       </c>
@@ -2389,7 +2402,7 @@
         <v>3617</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>97</v>
       </c>
@@ -2406,7 +2419,7 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>98</v>
       </c>
@@ -2423,7 +2436,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -2440,7 +2453,7 @@
         <v>4582</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -2457,7 +2470,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -2474,7 +2487,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -2491,7 +2504,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -2508,7 +2521,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -2525,7 +2538,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -2542,7 +2555,7 @@
         <v>12893</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -2559,7 +2572,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -2576,7 +2589,7 @@
         <v>49695</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -2593,7 +2606,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -2610,7 +2623,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -2627,7 +2640,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -2644,7 +2657,7 @@
         <v>10328</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -2661,7 +2674,7 @@
         <v>4835</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -2678,7 +2691,7 @@
         <v>6499</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -2695,7 +2708,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -2712,7 +2725,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B119">
         <v>1426939</v>
       </c>
